--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE1B4BE-39DA-5944-AB60-AAD0F0EE6955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D92F86-41D7-FE4D-B38F-8F5DE094155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27020" yWindow="5900" windowWidth="16860" windowHeight="20720" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Category</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>High-Level Trigger</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Disk</t>
   </si>
 </sst>
 </file>
@@ -1232,102 +1244,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
-        <f>INT(1000000*J2)</f>
+      <c r="D6">
+        <f>INT(1000000*K6)</f>
         <v>260000</v>
       </c>
-      <c r="D2">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F6">
         <v>400</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0.26</v>
       </c>
-      <c r="J2">
+      <c r="K6">
         <v>0.26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>13.3</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D92F86-41D7-FE4D-B38F-8F5DE094155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80919170-2995-704F-8E66-B690918753A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27020" yWindow="5900" windowWidth="16860" windowHeight="20720" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="28140" yWindow="4820" windowWidth="16860" windowHeight="20720" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80919170-2995-704F-8E66-B690918753A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B621A-783C-BC4D-ACE0-973B5D789EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28140" yWindow="4820" windowWidth="16860" windowHeight="20720" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="14500" yWindow="3500" windowWidth="25560" windowHeight="21340" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
     <sheet name="Triggers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Muon RPC</t>
   </si>
   <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>Level-1 Trigger</t>
-  </si>
-  <si>
     <t>Inner Tracker</t>
   </si>
   <si>
@@ -150,12 +144,6 @@
     <t>Global</t>
   </si>
   <si>
-    <t>High-Level Trigger</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -163,6 +151,12 @@
   </si>
   <si>
     <t>Disk</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Sample Rate</t>
   </si>
 </sst>
 </file>
@@ -198,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,25 +529,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -563,18 +558,17 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <f>INT(1000000*J2)</f>
         <v>1440000</v>
       </c>
-      <c r="D2">
-        <f>INT(40000000)</f>
+      <c r="D2" s="1">
         <v>40000000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -586,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1.44</v>
@@ -600,15 +594,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>INT(1000000*J3)</f>
+        <f t="shared" ref="C2:C20" si="0">INT(1000000*J3)</f>
         <v>720000</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">INT(40000000)</f>
+      <c r="D3" s="1">
         <v>40000000</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -620,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0.72</v>
@@ -634,15 +627,14 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>INT(1000000*J4)</f>
+        <f t="shared" si="0"/>
         <v>430000</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="D4" s="1">
         <v>40000000</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -654,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0.43</v>
@@ -668,15 +660,14 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f>INT(1000000*J5)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="1">
         <v>40000000</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -688,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.01</v>
@@ -702,15 +693,14 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*J6)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="D6" s="1">
         <v>40000000</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -722,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0.24</v>
@@ -736,15 +726,14 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <f>INT(1000000*J7)</f>
+        <f t="shared" si="0"/>
         <v>440000</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="D7" s="1">
         <v>40000000</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -756,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0.44</v>
@@ -770,15 +759,14 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <f>INT(1000000*J8)</f>
+        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="1">
         <v>40000000</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -790,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0.6</v>
@@ -804,15 +792,14 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <f>INT(1000000*J9)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="D9" s="1">
         <v>40000000</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -824,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0.24</v>
@@ -838,15 +825,14 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <f>INT(1000000*J10)</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="D10" s="1">
         <v>40000000</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -858,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.03</v>
@@ -872,15 +858,14 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <f>INT(1000000*J11)</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D11" s="1">
         <v>40000000</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -892,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0.06</v>
@@ -906,15 +891,14 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <f>INT(1000000*J12)</f>
+        <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D12" s="1">
         <v>40000000</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -926,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -940,15 +924,14 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <f>INT(1000000*J13)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="D13" s="1">
         <v>40000000</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -960,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0.15</v>
@@ -974,15 +957,14 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <f>INT(1000000*J14)</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D14" s="1">
         <v>40000000</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -994,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0.05</v>
@@ -1008,15 +990,14 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <f>INT(1000000*J15)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="D15" s="1">
         <v>40000000</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1028,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0.15</v>
@@ -1042,15 +1023,14 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <f>INT(1000000*J16)</f>
+        <f t="shared" si="0"/>
         <v>470000</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="D16" s="1">
         <v>40000000</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1062,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0.47</v>
@@ -1076,15 +1056,14 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <f>INT(1000000*J17)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="D17" s="1">
         <v>40000000</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1096,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>3.0000000000000001E-3</v>
@@ -1110,15 +1089,14 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <f>INT(1000000*J18)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="D18" s="1">
         <v>40000000</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1130,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2E-3</v>
@@ -1144,15 +1122,14 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <f>INT(1000000*J19)</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="D19" s="1">
         <v>40000000</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1164,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0.12</v>
@@ -1178,15 +1155,14 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <f>INT(1000000*J20)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
+      <c r="D20" s="1">
         <v>40000000</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1198,43 +1174,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <f>INT(1000000*J21)</f>
-        <v>260000</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>400</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.26</v>
-      </c>
-      <c r="J21">
-        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -1244,184 +1187,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f>INT(1000000*J6)</f>
+        <v>260000</v>
       </c>
       <c r="D6">
-        <f>INT(1000000*K6)</f>
-        <v>260000</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="F6">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1430,41 +1358,61 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J6">
         <v>0.26</v>
       </c>
-      <c r="K6">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>13.3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D50B79-7E1E-694A-A8F2-6285A6F9FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D4940-F3AD-C94A-80A4-9DE18E9CDBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25020" yWindow="3180" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="19420" yWindow="4140" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
     <sheet name="Triggers" sheetId="2" r:id="rId2"/>
+    <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Category</t>
   </si>
@@ -151,16 +152,35 @@
   </si>
   <si>
     <t>Skill variance</t>
+  </si>
+  <si>
+    <t>Link Efficiency (J/bit)</t>
+  </si>
+  <si>
+    <t>Op Effiency (J/op)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Op Efficiency (J/op)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,9 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,18 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F1" sqref="F1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,10 +553,16 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -542,7 +570,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <f>INT(1000000*F2)</f>
+        <f>INT(1000000*H2)</f>
         <v>1440000</v>
       </c>
       <c r="D2" s="1">
@@ -551,11 +579,17 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1.44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -563,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>INT(1000000*F3)</f>
+        <f>INT(1000000*H3)</f>
         <v>720000</v>
       </c>
       <c r="D3" s="1">
@@ -572,11 +606,17 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -584,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>INT(1000000*F4)</f>
+        <f>INT(1000000*H4)</f>
         <v>430000</v>
       </c>
       <c r="D4" s="1">
@@ -593,11 +633,17 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -605,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <f>INT(1000000*F5)</f>
+        <f>INT(1000000*H5)</f>
         <v>10000</v>
       </c>
       <c r="D5" s="1">
@@ -614,11 +660,17 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -626,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*F6)</f>
+        <f>INT(1000000*H6)</f>
         <v>240000</v>
       </c>
       <c r="D6" s="1">
@@ -635,11 +687,17 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -647,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f>INT(1000000*F7)</f>
+        <f>INT(1000000*H7)</f>
         <v>440000</v>
       </c>
       <c r="D7" s="1">
@@ -656,11 +714,17 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -668,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <f>INT(1000000*F8)</f>
+        <f>INT(1000000*H8)</f>
         <v>600000</v>
       </c>
       <c r="D8" s="1">
@@ -677,11 +741,17 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -689,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <f>INT(1000000*F9)</f>
+        <f>INT(1000000*H9)</f>
         <v>240000</v>
       </c>
       <c r="D9" s="1">
@@ -698,11 +768,17 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -710,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f>INT(1000000*F10)</f>
+        <f>INT(1000000*H10)</f>
         <v>30000</v>
       </c>
       <c r="D10" s="1">
@@ -719,11 +795,17 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -731,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <f>INT(1000000*F11)</f>
+        <f>INT(1000000*H11)</f>
         <v>60000</v>
       </c>
       <c r="D11" s="1">
@@ -740,11 +822,17 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -752,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <f>INT(1000000*F12)</f>
+        <f>INT(1000000*H12)</f>
         <v>3000000</v>
       </c>
       <c r="D12" s="1">
@@ -761,11 +849,17 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -773,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <f>INT(1000000*F13)</f>
+        <f>INT(1000000*H13)</f>
         <v>150000</v>
       </c>
       <c r="D13" s="1">
@@ -782,11 +876,17 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -794,7 +894,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f>INT(1000000*F14)</f>
+        <f>INT(1000000*H14)</f>
         <v>50000</v>
       </c>
       <c r="D14" s="1">
@@ -803,11 +903,17 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -815,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <f>INT(1000000*F15)</f>
+        <f>INT(1000000*H15)</f>
         <v>150000</v>
       </c>
       <c r="D15" s="1">
@@ -824,11 +930,17 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -836,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <f>INT(1000000*F16)</f>
+        <f>INT(1000000*H16)</f>
         <v>470000</v>
       </c>
       <c r="D16" s="1">
@@ -845,11 +957,17 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -857,7 +975,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <f>INT(1000000*F17)</f>
+        <f>INT(1000000*H17)</f>
         <v>3000</v>
       </c>
       <c r="D17" s="1">
@@ -866,11 +984,17 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -878,7 +1002,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <f>INT(1000000*F18)</f>
+        <f>INT(1000000*H18)</f>
         <v>2000</v>
       </c>
       <c r="D18" s="1">
@@ -887,11 +1011,17 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -899,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <f>INT(1000000*F19)</f>
+        <f>INT(1000000*H19)</f>
         <v>120000</v>
       </c>
       <c r="D19" s="1">
@@ -908,11 +1038,17 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -920,7 +1056,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <f>INT(1000000*F20)</f>
+        <f>INT(1000000*H20)</f>
         <v>10000</v>
       </c>
       <c r="D20" s="1">
@@ -929,7 +1065,13 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0.01</v>
       </c>
     </row>
@@ -940,15 +1082,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -967,14 +1109,17 @@
       <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -993,14 +1138,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1019,14 +1167,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1045,14 +1196,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1071,14 +1225,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1097,14 +1254,17 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1123,14 +1283,17 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1149,11 +1312,39 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" s="1">
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71FC763-14EC-C647-91BD-463BB251C3CF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2032</v>
       </c>
     </row>
   </sheetData>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D4940-F3AD-C94A-80A4-9DE18E9CDBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCFD0FD-676B-2D4D-B553-B59A0CDED5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19420" yWindow="4140" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="14100" yWindow="4480" windowWidth="25560" windowHeight="21340" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Category</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Link Efficiency (J/bit)</t>
-  </si>
-  <si>
-    <t>Op Effiency (J/op)</t>
   </si>
   <si>
     <t>Year</t>
@@ -206,10 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +554,7 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1084,241 +1082,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>260000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G6" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="H6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G7" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="H7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>260000</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H6">
-        <v>120</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>13.3</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H7">
-        <v>1600</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1339,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCFD0FD-676B-2D4D-B553-B59A0CDED5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D45DE-961E-064F-A18D-56DF26C47F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="4480" windowWidth="25560" windowHeight="21340" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="14100" yWindow="4480" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1244,7 @@
         <v>260000</v>
       </c>
       <c r="D6" s="2">
-        <v>400</v>
+        <v>53.3</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>13.3</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D45DE-961E-064F-A18D-56DF26C47F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A4D7F-5756-C34F-9327-153F9E4815B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="4480" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="4580" yWindow="4000" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Sample Rate</t>
   </si>
   <si>
-    <t>Reduction</t>
-  </si>
-  <si>
     <t>Skill mean</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Op Efficiency (J/op)</t>
+  </si>
+  <si>
+    <t>Reduction Ratio</t>
   </si>
 </sst>
 </file>
@@ -530,6 +530,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
@@ -551,10 +552,10 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -568,7 +569,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <f>INT(1000000*H2)</f>
+        <f t="shared" ref="C2:C20" si="0">INT(1000000*H2)</f>
         <v>1440000</v>
       </c>
       <c r="D2" s="1">
@@ -595,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>INT(1000000*H3)</f>
+        <f t="shared" si="0"/>
         <v>720000</v>
       </c>
       <c r="D3" s="1">
@@ -622,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>INT(1000000*H4)</f>
+        <f t="shared" si="0"/>
         <v>430000</v>
       </c>
       <c r="D4" s="1">
@@ -649,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <f>INT(1000000*H5)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D5" s="1">
@@ -676,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*H6)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
       <c r="D6" s="1">
@@ -703,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f>INT(1000000*H7)</f>
+        <f t="shared" si="0"/>
         <v>440000</v>
       </c>
       <c r="D7" s="1">
@@ -730,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <f>INT(1000000*H8)</f>
+        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
       <c r="D8" s="1">
@@ -757,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <f>INT(1000000*H9)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
       <c r="D9" s="1">
@@ -784,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f>INT(1000000*H10)</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="D10" s="1">
@@ -811,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <f>INT(1000000*H11)</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="D11" s="1">
@@ -838,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <f>INT(1000000*H12)</f>
+        <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
       <c r="D12" s="1">
@@ -865,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <f>INT(1000000*H13)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="D13" s="1">
@@ -892,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f>INT(1000000*H14)</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="D14" s="1">
@@ -919,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <f>INT(1000000*H15)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="D15" s="1">
@@ -946,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <f>INT(1000000*H16)</f>
+        <f t="shared" si="0"/>
         <v>470000</v>
       </c>
       <c r="D16" s="1">
@@ -973,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <f>INT(1000000*H17)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="D17" s="1">
@@ -1000,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <f>INT(1000000*H18)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="D18" s="1">
@@ -1027,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <f>INT(1000000*H19)</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="D19" s="1">
@@ -1054,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <f>INT(1000000*H20)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D20" s="1">
@@ -1083,37 +1084,37 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1337,7 +1338,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A4D7F-5756-C34F-9327-153F9E4815B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4B645-9213-2747-BE83-790FB1C00817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="4000" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Disk</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Sample Rate</t>
@@ -546,16 +543,16 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1084,7 +1081,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,19 +1097,19 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
@@ -1296,9 +1293,7 @@
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>0</v>
       </c>
@@ -1338,7 +1333,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4B645-9213-2747-BE83-790FB1C00817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF07DF-E672-AF45-A35F-C317A9815CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="4000" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="51020" yWindow="12080" windowWidth="21600" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>Reduction Ratio</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>L1T</t>
+  </si>
+  <si>
+    <t>Dummy</t>
   </si>
 </sst>
 </file>
@@ -223,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,15 +1090,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1100,22 +1112,25 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1128,23 +1143,26 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1157,23 +1175,26 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1186,23 +1207,26 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1215,23 +1239,26 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>41</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1244,23 +1271,26 @@
       <c r="D6" s="2">
         <v>53.3</v>
       </c>
-      <c r="E6" s="2">
-        <v>3</v>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1273,23 +1303,26 @@
       <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1300,19 +1333,22 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
       <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF07DF-E672-AF45-A35F-C317A9815CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8B6C6-A62C-F945-ABD1-DD346703184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51020" yWindow="12080" windowWidth="21600" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="17860" yWindow="29560" windowWidth="21600" windowHeight="17380" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -533,12 +533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -1092,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8B6C6-A62C-F945-ABD1-DD346703184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B708D-227F-E642-91E1-7945042B9853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17860" yWindow="29560" windowWidth="21600" windowHeight="17380" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="51800" yWindow="7580" windowWidth="21600" windowHeight="17380" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B708D-227F-E642-91E1-7945042B9853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05DB4E3-742E-C841-97C3-5CCFE075E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51800" yWindow="7580" windowWidth="21600" windowHeight="17380" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="-24620" yWindow="5160" windowWidth="21600" windowHeight="17380" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -163,13 +163,13 @@
     <t>Classifier</t>
   </si>
   <si>
-    <t>Gaussian</t>
-  </si>
-  <si>
     <t>L1T</t>
   </si>
   <si>
     <t>Dummy</t>
+  </si>
+  <si>
+    <t>HLT</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>53.3</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>

--- a/cms_system_200.xlsx
+++ b/cms_system_200.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05DB4E3-742E-C841-97C3-5CCFE075E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DF1A07-7423-8048-8922-DC4FDD9BFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24620" yWindow="5160" windowWidth="21600" windowHeight="17380" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="50040" windowHeight="28300" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
-    <sheet name="Triggers" sheetId="2" r:id="rId2"/>
+    <sheet name="Processors" sheetId="2" r:id="rId2"/>
     <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
